--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1955.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1955.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.004*"import" + 0.003*"exchange" + 0.003*"rate" + 0.003*"payment" + 0.003*"export" + 0.002*"per" + 0.002*"foreign" + 0.002*"currency" + 0.002*"may" + 0.002*"license"</t>
-  </si>
-  <si>
-    <t>0.025*"exchange" + 0.021*"import" + 0.017*"payment" + 0.016*"export" + 0.015*"rate" + 0.013*"account" + 0.013*"country" + 0.012*"currency" + 0.012*"per" + 0.011*"bank"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"rate" + 0.001*"export" + 0.001*"payment" + 0.001*"account" + 0.001*"country" + 0.001*"bank" + 0.001*"foreign" + 0.001*"may"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"import" + 0.001*"rate" + 0.001*"may" + 0.001*"payment" + 0.001*"foreign" + 0.001*"export" + 0.001*"country" + 0.001*"currency" + 0.001*"license"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"rate" + 0.001*"payment" + 0.001*"per" + 0.001*"country" + 0.001*"bank" + 0.001*"account" + 0.001*"license"</t>
+    <t>0.063*"fund" + 0.058*"monetary" + 0.047*"international" + 0.030*"redistribution" + 0.021*"exchange" + 0.016*"essential" + 0.012*"system" + 0.011*"control" + 0.011*"ministry" + 0.009*"feature"</t>
+  </si>
+  <si>
+    <t>0.034*"country" + 0.034*"currency" + 0.030*"payment" + 0.027*"account" + 0.024*"may" + 0.023*"foreign" + 0.017*"agreement" + 0.016*"dollar" + 0.014*"make" + 0.010*"resident"</t>
+  </si>
+  <si>
+    <t>0.081*"export" + 0.053*"per" + 0.033*"proceeds" + 0.026*"cent" + 0.023*"rate" + 0.019*"u" + 0.015*"import" + 0.015*"exchange" + 0.015*"certain" + 0.011*"tax"</t>
+  </si>
+  <si>
+    <t>0.066*"import" + 0.043*"payment" + 0.038*"license" + 0.022*"capital" + 0.021*"account" + 0.019*"free" + 0.019*"area" + 0.017*"require" + 0.016*"invisibles" + 0.015*"country"</t>
+  </si>
+  <si>
+    <t>0.084*"exchange" + 0.055*"rate" + 0.039*"bank" + 0.020*"control" + 0.017*"foreign" + 0.015*"official" + 0.015*"must" + 0.012*"transaction" + 0.011*"system" + 0.010*"receipt"</t>
   </si>
 </sst>
 </file>
